--- a/config_files/20186_13.xlsx
+++ b/config_files/20186_13.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>wejscie</t>
   </si>
@@ -119,7 +119,10 @@
     <t>0-10V = 0-100 stopni Celsiusza</t>
   </si>
   <si>
-    <t>BRAK</t>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>0-6V = 0-55Hz</t>
   </si>
 </sst>
 </file>
@@ -444,7 +447,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,12 +565,15 @@
       <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <f>55/6</f>
+        <v>9.1666666666666661</v>
+      </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
